--- a/biology/Zoologie/Conus_blatteus/Conus_blatteus.xlsx
+++ b/biology/Zoologie/Conus_blatteus/Conus_blatteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus blatteus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus blatteus a été décrite pour la première fois en 1979 par le malacologiste japonais Tokio Shikama (d) dans « Science Reports of the Yokosuka City Museum »[1],[2].
-Synonymes
-Conus (Leporiconus) blatteus Shikama, 1979 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus blatteus a été décrite pour la première fois en 1979 par le malacologiste japonais Tokio Shikama (d) dans « Science Reports of the Yokosuka City Museum »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_blatteus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_blatteus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Leporiconus) blatteus Shikama, 1979 · non accepté
 Kioconus (Isoconus) blatteus (Shikama, 1979) · non accepté
 Kioconus blatteus (Shikama, 1979) · non accepté</t>
         </is>
